--- a/src/test/resources/files/metadata-upload/mixed.xlsx
+++ b/src/test/resources/files/metadata-upload/mixed.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t xml:space="preserve">Key              </t>
   </si>
@@ -35,9 +35,6 @@
     <t xml:space="preserve">NLEP #             </t>
   </si>
   <si>
-    <t>SubmittedNumber</t>
-  </si>
-  <si>
     <t>Province</t>
   </si>
   <si>
@@ -47,219 +44,24 @@
     <t>SourceType</t>
   </si>
   <si>
-    <t xml:space="preserve">PatientAge  </t>
-  </si>
-  <si>
     <t>PatientSex</t>
   </si>
   <si>
     <t xml:space="preserve">Genus      </t>
   </si>
   <si>
-    <t xml:space="preserve">Serotype </t>
-  </si>
-  <si>
-    <t>ReceivedDate</t>
-  </si>
-  <si>
-    <t>UploadDate</t>
-  </si>
-  <si>
-    <t>IsolatDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SourceCity      </t>
-  </si>
-  <si>
-    <t>UploadModifiedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments                                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outbreak              </t>
-  </si>
-  <si>
-    <t>Phagetype</t>
-  </si>
-  <si>
-    <t>Traveled_To</t>
-  </si>
-  <si>
-    <t>Exposure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB___15204248    </t>
-  </si>
-  <si>
-    <t>SINXAI.0037</t>
-  </si>
-  <si>
-    <t>SINBNI.0049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15204248     </t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stool      </t>
   </si>
   <si>
     <t>Human</t>
   </si>
   <si>
-    <t xml:space="preserve">            </t>
-  </si>
-  <si>
     <t xml:space="preserve">Female </t>
   </si>
   <si>
     <t xml:space="preserve">Salmonella </t>
   </si>
   <si>
-    <t xml:space="preserve">Infantis </t>
-  </si>
-  <si>
-    <t>2015-07-03</t>
-  </si>
-  <si>
-    <t>2015-07-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waterhen        </t>
-  </si>
-  <si>
-    <t>2015-08-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pattern combination last seen October 2012 in QC                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1507SIN37MP           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC___E2710201678 </t>
-  </si>
-  <si>
-    <t>SINBNI.0013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2710201678  </t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/04/1962  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEMALE </t>
-  </si>
-  <si>
-    <t>2015-07-21</t>
-  </si>
-  <si>
-    <t>10/07/2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                </t>
-  </si>
-  <si>
-    <t>2015-07-22</t>
-  </si>
-  <si>
-    <t>XbaI pattern last seen July 2015 in MB. Pattern combination last seen 2012</t>
-  </si>
-  <si>
-    <t>SK___G0711B031374</t>
-  </si>
-  <si>
-    <t>SINBNI.0012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G0711B031374 </t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24          </t>
-  </si>
-  <si>
-    <t>2015-07-11</t>
-  </si>
-  <si>
-    <t>2015-07-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regina          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pattern combination last seen April 2015 in ON                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB___15217638    </t>
-  </si>
-  <si>
-    <t>SINBNI.0045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15217638     </t>
-  </si>
-  <si>
-    <t>2015-07-28</t>
-  </si>
-  <si>
-    <t>2015-08-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAP            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patterns last seen 2012                                                   </t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC___E2720162570 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2720162570  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/08/2014  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MALE   </t>
-  </si>
-  <si>
-    <t>2015-08-19</t>
-  </si>
-  <si>
-    <t>08/08/2015</t>
-  </si>
-  <si>
-    <t>2015-08-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Match to cluster 1507SIN37MP. Please update posting                       </t>
-  </si>
-  <si>
     <t>sample2</t>
   </si>
   <si>
@@ -275,19 +77,67 @@
     <t>sample5</t>
   </si>
   <si>
-    <t>sampleNotThere1</t>
-  </si>
-  <si>
-    <t>sampleNotThere2</t>
+    <t>ABC1234</t>
+  </si>
+  <si>
+    <t>ABC2345</t>
+  </si>
+  <si>
+    <t>ABC3456</t>
+  </si>
+  <si>
+    <t>ABC4567</t>
+  </si>
+  <si>
+    <t>ABC5678</t>
+  </si>
+  <si>
+    <t>SINXAI.0027</t>
+  </si>
+  <si>
+    <t>SINXAI.0034</t>
+  </si>
+  <si>
+    <t>SINBNI.0019</t>
+  </si>
+  <si>
+    <t>SINBNI.0032</t>
+  </si>
+  <si>
+    <t>SINBNI.0098</t>
+  </si>
+  <si>
+    <t>SINBNI.0005</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>PEI</t>
+  </si>
+  <si>
+    <t>Urine</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>sampleNotHere</t>
+  </si>
+  <si>
+    <t>sampleNotHereEither</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,16 +223,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -688,11 +535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX8"/>
+  <dimension ref="A1:BK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -701,22 +548,14 @@
     <col min="2" max="2" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.83203125" style="5"/>
-    <col min="11" max="11" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.83203125" style="5"/>
-    <col min="14" max="15" width="8.83203125" style="8"/>
-    <col min="16" max="17" width="8.83203125" style="5"/>
-    <col min="18" max="18" width="18.1640625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="20.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.83203125" style="5"/>
-    <col min="21" max="21" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="76" width="8.83203125" style="5"/>
-    <col min="77" max="16384" width="8.83203125" style="3"/>
+    <col min="5" max="5" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.83203125" style="5"/>
+    <col min="9" max="9" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="63" width="8.83203125" style="5"/>
+    <col min="64" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76">
+    <row r="1" spans="1:63">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,46 +583,20 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -824,86 +637,49 @@
       <c r="BI1" s="3"/>
       <c r="BJ1" s="3"/>
       <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3"/>
-      <c r="BR1" s="3"/>
-      <c r="BS1" s="3"/>
-      <c r="BT1" s="3"/>
-      <c r="BU1" s="3"/>
-      <c r="BV1" s="3"/>
-      <c r="BW1" s="3"/>
-      <c r="BX1" s="3"/>
     </row>
-    <row r="2" spans="1:76">
+    <row r="2" spans="1:63">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -944,86 +720,49 @@
       <c r="BI2" s="3"/>
       <c r="BJ2" s="3"/>
       <c r="BK2" s="3"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3"/>
-      <c r="BN2" s="3"/>
-      <c r="BO2" s="3"/>
-      <c r="BP2" s="3"/>
-      <c r="BQ2" s="3"/>
-      <c r="BR2" s="3"/>
-      <c r="BS2" s="3"/>
-      <c r="BT2" s="3"/>
-      <c r="BU2" s="3"/>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3"/>
-      <c r="BX2" s="3"/>
     </row>
-    <row r="3" spans="1:76">
+    <row r="3" spans="1:63">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -1064,86 +803,49 @@
       <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
       <c r="BK3" s="3"/>
-      <c r="BL3" s="3"/>
-      <c r="BM3" s="3"/>
-      <c r="BN3" s="3"/>
-      <c r="BO3" s="3"/>
-      <c r="BP3" s="3"/>
-      <c r="BQ3" s="3"/>
-      <c r="BR3" s="3"/>
-      <c r="BS3" s="3"/>
-      <c r="BT3" s="3"/>
-      <c r="BU3" s="3"/>
-      <c r="BV3" s="3"/>
-      <c r="BW3" s="3"/>
-      <c r="BX3" s="3"/>
     </row>
-    <row r="4" spans="1:76">
+    <row r="4" spans="1:63">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
@@ -1184,86 +886,49 @@
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
       <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3"/>
-      <c r="BT4" s="3"/>
-      <c r="BU4" s="3"/>
-      <c r="BV4" s="3"/>
-      <c r="BW4" s="3"/>
-      <c r="BX4" s="3"/>
     </row>
-    <row r="5" spans="1:76">
+    <row r="5" spans="1:63">
       <c r="A5" s="4" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
@@ -1304,86 +969,49 @@
       <c r="BI5" s="3"/>
       <c r="BJ5" s="3"/>
       <c r="BK5" s="3"/>
-      <c r="BL5" s="3"/>
-      <c r="BM5" s="3"/>
-      <c r="BN5" s="3"/>
-      <c r="BO5" s="3"/>
-      <c r="BP5" s="3"/>
-      <c r="BQ5" s="3"/>
-      <c r="BR5" s="3"/>
-      <c r="BS5" s="3"/>
-      <c r="BT5" s="3"/>
-      <c r="BU5" s="3"/>
-      <c r="BV5" s="3"/>
-      <c r="BW5" s="3"/>
-      <c r="BX5" s="3"/>
     </row>
-    <row r="6" spans="1:76">
+    <row r="6" spans="1:63">
       <c r="A6" s="4" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
@@ -1424,86 +1052,49 @@
       <c r="BI6" s="3"/>
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3"/>
-      <c r="BL6" s="3"/>
-      <c r="BM6" s="3"/>
-      <c r="BN6" s="3"/>
-      <c r="BO6" s="3"/>
-      <c r="BP6" s="3"/>
-      <c r="BQ6" s="3"/>
-      <c r="BR6" s="3"/>
-      <c r="BS6" s="3"/>
-      <c r="BT6" s="3"/>
-      <c r="BU6" s="3"/>
-      <c r="BV6" s="3"/>
-      <c r="BW6" s="3"/>
-      <c r="BX6" s="3"/>
     </row>
-    <row r="7" spans="1:76">
+    <row r="7" spans="1:63">
       <c r="A7" s="4" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
@@ -1544,86 +1135,49 @@
       <c r="BI7" s="3"/>
       <c r="BJ7" s="3"/>
       <c r="BK7" s="3"/>
-      <c r="BL7" s="3"/>
-      <c r="BM7" s="3"/>
-      <c r="BN7" s="3"/>
-      <c r="BO7" s="3"/>
-      <c r="BP7" s="3"/>
-      <c r="BQ7" s="3"/>
-      <c r="BR7" s="3"/>
-      <c r="BS7" s="3"/>
-      <c r="BT7" s="3"/>
-      <c r="BU7" s="3"/>
-      <c r="BV7" s="3"/>
-      <c r="BW7" s="3"/>
-      <c r="BX7" s="3"/>
     </row>
-    <row r="8" spans="1:76">
+    <row r="8" spans="1:63">
       <c r="A8" s="4" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
@@ -1664,19 +1218,6 @@
       <c r="BI8" s="3"/>
       <c r="BJ8" s="3"/>
       <c r="BK8" s="3"/>
-      <c r="BL8" s="3"/>
-      <c r="BM8" s="3"/>
-      <c r="BN8" s="3"/>
-      <c r="BO8" s="3"/>
-      <c r="BP8" s="3"/>
-      <c r="BQ8" s="3"/>
-      <c r="BR8" s="3"/>
-      <c r="BS8" s="3"/>
-      <c r="BT8" s="3"/>
-      <c r="BU8" s="3"/>
-      <c r="BV8" s="3"/>
-      <c r="BW8" s="3"/>
-      <c r="BX8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
